--- a/9/1/1/5/Mensual 2009 a 2021 - Mensual.xlsx
+++ b/9/1/1/5/Mensual 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>Serie</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -821,7 +824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6485,6 +6488,47 @@
         <v>18</v>
       </c>
     </row>
+    <row r="139" spans="1:13">
+      <c r="A139" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139">
+        <v>8258.799999999999</v>
+      </c>
+      <c r="C139">
+        <v>329.5</v>
+      </c>
+      <c r="D139">
+        <v>1288.2</v>
+      </c>
+      <c r="E139">
+        <v>1007.3</v>
+      </c>
+      <c r="F139">
+        <v>476.6</v>
+      </c>
+      <c r="G139">
+        <v>1723.2</v>
+      </c>
+      <c r="H139">
+        <v>180.4</v>
+      </c>
+      <c r="I139">
+        <v>1088.9</v>
+      </c>
+      <c r="J139">
+        <v>660.1</v>
+      </c>
+      <c r="K139">
+        <v>1461.9</v>
+      </c>
+      <c r="L139">
+        <v>26.3</v>
+      </c>
+      <c r="M139">
+        <v>16.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/9/1/1/5/Mensual 2009 a 2021 - Mensual.xlsx
+++ b/9/1/1/5/Mensual 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>Serie</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -824,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6086,10 +6089,10 @@
         <v>7667.7</v>
       </c>
       <c r="C129">
-        <v>298.4</v>
+        <v>298.6</v>
       </c>
       <c r="D129">
-        <v>1236.5</v>
+        <v>1236.6</v>
       </c>
       <c r="E129">
         <v>982.4</v>
@@ -6098,19 +6101,19 @@
         <v>456.8</v>
       </c>
       <c r="G129">
-        <v>1522.2</v>
+        <v>1521.6</v>
       </c>
       <c r="H129">
         <v>196.6</v>
       </c>
       <c r="I129">
-        <v>965</v>
+        <v>964.9</v>
       </c>
       <c r="J129">
         <v>617.7</v>
       </c>
       <c r="K129">
-        <v>1352.2</v>
+        <v>1352.6</v>
       </c>
       <c r="L129">
         <v>29.8</v>
@@ -6127,31 +6130,31 @@
         <v>7916.7</v>
       </c>
       <c r="C130">
-        <v>311.3</v>
+        <v>312</v>
       </c>
       <c r="D130">
-        <v>1278.1</v>
+        <v>1278</v>
       </c>
       <c r="E130">
-        <v>994.7</v>
+        <v>994.5</v>
       </c>
       <c r="F130">
-        <v>469.3</v>
+        <v>468.9</v>
       </c>
       <c r="G130">
-        <v>1554.4</v>
+        <v>1553.9</v>
       </c>
       <c r="H130">
-        <v>201.8</v>
+        <v>201.7</v>
       </c>
       <c r="I130">
-        <v>1001.2</v>
+        <v>1001.4</v>
       </c>
       <c r="J130">
-        <v>636</v>
+        <v>636.5</v>
       </c>
       <c r="K130">
-        <v>1426.5</v>
+        <v>1426.4</v>
       </c>
       <c r="L130">
         <v>31.9</v>
@@ -6168,28 +6171,28 @@
         <v>8026.2</v>
       </c>
       <c r="C131">
-        <v>299.3</v>
+        <v>299.9</v>
       </c>
       <c r="D131">
-        <v>1252.7</v>
+        <v>1252.6</v>
       </c>
       <c r="E131">
-        <v>997.9</v>
+        <v>997.8</v>
       </c>
       <c r="F131">
-        <v>462.9</v>
+        <v>462.5</v>
       </c>
       <c r="G131">
-        <v>1626.9</v>
+        <v>1626.4</v>
       </c>
       <c r="H131">
         <v>198.4</v>
       </c>
       <c r="I131">
-        <v>1007.8</v>
+        <v>1007.9</v>
       </c>
       <c r="J131">
-        <v>633.6</v>
+        <v>634.1</v>
       </c>
       <c r="K131">
         <v>1500.8</v>
@@ -6209,31 +6212,31 @@
         <v>8121.4</v>
       </c>
       <c r="C132">
-        <v>305.4</v>
+        <v>305.8</v>
       </c>
       <c r="D132">
-        <v>1253.7</v>
+        <v>1253.5</v>
       </c>
       <c r="E132">
-        <v>1014</v>
+        <v>1013.8</v>
       </c>
       <c r="F132">
-        <v>513.8</v>
+        <v>513.5</v>
       </c>
       <c r="G132">
         <v>1642.3</v>
       </c>
       <c r="H132">
-        <v>199.8</v>
+        <v>199.7</v>
       </c>
       <c r="I132">
-        <v>999.5</v>
+        <v>999.8</v>
       </c>
       <c r="J132">
-        <v>616.6</v>
+        <v>617.1</v>
       </c>
       <c r="K132">
-        <v>1530.1</v>
+        <v>1529.6</v>
       </c>
       <c r="L132">
         <v>35.5</v>
@@ -6527,6 +6530,47 @@
       </c>
       <c r="M139">
         <v>16.4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140">
+        <v>8345.200000000001</v>
+      </c>
+      <c r="C140">
+        <v>335.7</v>
+      </c>
+      <c r="D140">
+        <v>1281.6</v>
+      </c>
+      <c r="E140">
+        <v>1035.5</v>
+      </c>
+      <c r="F140">
+        <v>478.7</v>
+      </c>
+      <c r="G140">
+        <v>1740.4</v>
+      </c>
+      <c r="H140">
+        <v>187</v>
+      </c>
+      <c r="I140">
+        <v>1100.8</v>
+      </c>
+      <c r="J140">
+        <v>649.9</v>
+      </c>
+      <c r="K140">
+        <v>1493</v>
+      </c>
+      <c r="L140">
+        <v>26.5</v>
+      </c>
+      <c r="M140">
+        <v>16.1</v>
       </c>
     </row>
   </sheetData>
